--- a/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>Itgb1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H2">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I2">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J2">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>35.92610051756902</v>
+        <v>2.1212364394745</v>
       </c>
       <c r="R2">
-        <v>35.92610051756902</v>
+        <v>8.484945757898</v>
       </c>
       <c r="S2">
-        <v>0.008020029462612576</v>
+        <v>0.0003713561894224462</v>
       </c>
       <c r="T2">
-        <v>0.008020029462612576</v>
+        <v>0.0002828642782833975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H3">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I3">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J3">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>24.31235259556922</v>
+        <v>1.530753423592</v>
       </c>
       <c r="R3">
-        <v>24.31235259556922</v>
+        <v>9.184520541551999</v>
       </c>
       <c r="S3">
-        <v>0.00542741297588187</v>
+        <v>0.0002679827424006132</v>
       </c>
       <c r="T3">
-        <v>0.00542741297588187</v>
+        <v>0.0003061861381903223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H4">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I4">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J4">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>18.34192772984617</v>
+        <v>1.089532393773</v>
       </c>
       <c r="R4">
-        <v>18.34192772984617</v>
+        <v>6.537194362638</v>
       </c>
       <c r="S4">
-        <v>0.004094594143957785</v>
+        <v>0.0001907399809255075</v>
       </c>
       <c r="T4">
-        <v>0.004094594143957785</v>
+        <v>0.0002179317131950629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H5">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I5">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J5">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>17.2459845031616</v>
+        <v>1.026424558781666</v>
       </c>
       <c r="R5">
-        <v>17.2459845031616</v>
+        <v>6.158547352689999</v>
       </c>
       <c r="S5">
-        <v>0.003849939231770403</v>
+        <v>0.0001796919503104536</v>
       </c>
       <c r="T5">
-        <v>0.003849939231770403</v>
+        <v>0.0002053086845689328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H6">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I6">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J6">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>25.33912127606153</v>
+        <v>1.569020297476</v>
       </c>
       <c r="R6">
-        <v>25.33912127606153</v>
+        <v>9.414121784855999</v>
       </c>
       <c r="S6">
-        <v>0.005656625580372834</v>
+        <v>0.0002746819675328158</v>
       </c>
       <c r="T6">
-        <v>0.005656625580372834</v>
+        <v>0.0003138403992584856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H7">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I7">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J7">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>30.46678778908079</v>
+        <v>1.8032776211405</v>
       </c>
       <c r="R7">
-        <v>30.46678778908079</v>
+        <v>7.213110484562</v>
       </c>
       <c r="S7">
-        <v>0.006801309693494307</v>
+        <v>0.000315692439275372</v>
       </c>
       <c r="T7">
-        <v>0.006801309693494307</v>
+        <v>0.0002404648597187373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H8">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I8">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J8">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>1025.409051119203</v>
+        <v>43.7507278579085</v>
       </c>
       <c r="R8">
-        <v>1025.409051119203</v>
+        <v>262.504367147451</v>
       </c>
       <c r="S8">
-        <v>0.2289090851144255</v>
+        <v>0.007659261023158884</v>
       </c>
       <c r="T8">
-        <v>0.2289090851144255</v>
+        <v>0.008751158873383142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H9">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I9">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J9">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>693.9274245282061</v>
+        <v>31.571952662536</v>
       </c>
       <c r="R9">
-        <v>693.9274245282061</v>
+        <v>284.147573962824</v>
       </c>
       <c r="S9">
-        <v>0.1549101714200643</v>
+        <v>0.005527172650442378</v>
       </c>
       <c r="T9">
-        <v>0.1549101714200643</v>
+        <v>0.009472682646221666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H10">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I10">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J10">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>523.5185126746736</v>
+        <v>22.471721853009</v>
       </c>
       <c r="R10">
-        <v>523.5185126746736</v>
+        <v>202.245496677081</v>
       </c>
       <c r="S10">
-        <v>0.1168686229617582</v>
+        <v>0.00393403245475166</v>
       </c>
       <c r="T10">
-        <v>0.1168686229617582</v>
+        <v>0.006742297250442541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H11">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I11">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J11">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>492.2379092146469</v>
+        <v>21.17011602396166</v>
       </c>
       <c r="R11">
-        <v>492.2379092146469</v>
+        <v>190.531044215655</v>
       </c>
       <c r="S11">
-        <v>0.1098856396225274</v>
+        <v>0.003706165644710999</v>
       </c>
       <c r="T11">
-        <v>0.1098856396225274</v>
+        <v>0.006351770282382428</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H12">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I12">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J12">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>723.2336359793391</v>
+        <v>32.361211018708</v>
       </c>
       <c r="R12">
-        <v>723.2336359793391</v>
+        <v>291.250899168372</v>
       </c>
       <c r="S12">
-        <v>0.1614523977092966</v>
+        <v>0.005665344883468164</v>
       </c>
       <c r="T12">
-        <v>0.1614523977092966</v>
+        <v>0.009709487572854145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.265837</v>
+      </c>
+      <c r="H13">
+        <v>0.797511</v>
+      </c>
+      <c r="I13">
+        <v>0.0330031668946923</v>
+      </c>
+      <c r="J13">
+        <v>0.04846681670206063</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>139.9082645</v>
+      </c>
+      <c r="N13">
+        <v>279.816529</v>
+      </c>
+      <c r="O13">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P13">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q13">
+        <v>37.1927933098865</v>
+      </c>
+      <c r="R13">
+        <v>223.156759859319</v>
+      </c>
+      <c r="S13">
+        <v>0.00651119023816022</v>
+      </c>
+      <c r="T13">
+        <v>0.007439420076776707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.237479</v>
+      </c>
+      <c r="I14">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J14">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>164.5772705</v>
+      </c>
+      <c r="N14">
+        <v>329.154541</v>
+      </c>
+      <c r="O14">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P14">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q14">
+        <v>13.02788187368983</v>
+      </c>
+      <c r="R14">
+        <v>78.167291242139</v>
+      </c>
+      <c r="S14">
+        <v>0.002280738006772005</v>
+      </c>
+      <c r="T14">
+        <v>0.002605878110887693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.237479</v>
+      </c>
+      <c r="I15">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J15">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>118.764328</v>
+      </c>
+      <c r="N15">
+        <v>356.292984</v>
+      </c>
+      <c r="O15">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P15">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q15">
+        <v>9.401344616370666</v>
+      </c>
+      <c r="R15">
+        <v>84.612101547336</v>
+      </c>
+      <c r="S15">
+        <v>0.00164585495855782</v>
+      </c>
+      <c r="T15">
+        <v>0.00282072999888663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.237479</v>
+      </c>
+      <c r="I16">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J16">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N16">
+        <v>253.595871</v>
+      </c>
+      <c r="O16">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P16">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q16">
+        <v>6.691521538801001</v>
+      </c>
+      <c r="R16">
+        <v>60.22369384920901</v>
+      </c>
+      <c r="S16">
+        <v>0.001171457313218212</v>
+      </c>
+      <c r="T16">
+        <v>0.002007688933115461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.237479</v>
+      </c>
+      <c r="I17">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J17">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N17">
+        <v>238.907105</v>
+      </c>
+      <c r="O17">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P17">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q17">
+        <v>6.303935598699445</v>
+      </c>
+      <c r="R17">
+        <v>56.735420388295</v>
+      </c>
+      <c r="S17">
+        <v>0.001103604227578458</v>
+      </c>
+      <c r="T17">
+        <v>0.001891399685885081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.237479</v>
+      </c>
+      <c r="I18">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J18">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>121.733284</v>
+      </c>
+      <c r="N18">
+        <v>365.199852</v>
+      </c>
+      <c r="O18">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P18">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q18">
+        <v>9.636366183678666</v>
+      </c>
+      <c r="R18">
+        <v>86.72729565310799</v>
+      </c>
+      <c r="S18">
+        <v>0.001686999223309943</v>
+      </c>
+      <c r="T18">
+        <v>0.00289124463400985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.237479</v>
+      </c>
+      <c r="I19">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J19">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.9082645</v>
+      </c>
+      <c r="N19">
+        <v>279.816529</v>
+      </c>
+      <c r="O19">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P19">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q19">
+        <v>11.07509158173183</v>
+      </c>
+      <c r="R19">
+        <v>66.450549490391</v>
+      </c>
+      <c r="S19">
+        <v>0.001938870995595109</v>
+      </c>
+      <c r="T19">
+        <v>0.002215274824313214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.697008</v>
+      </c>
+      <c r="H20">
+        <v>15.394016</v>
+      </c>
+      <c r="I20">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J20">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>164.5772705</v>
+      </c>
+      <c r="N20">
+        <v>329.154541</v>
+      </c>
+      <c r="O20">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P20">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q20">
+        <v>1266.752567656664</v>
+      </c>
+      <c r="R20">
+        <v>5067.010270626656</v>
+      </c>
+      <c r="S20">
+        <v>0.2217651920889196</v>
+      </c>
+      <c r="T20">
+        <v>0.1689199016883806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.23075727045983</v>
-      </c>
-      <c r="H13">
-        <v>6.23075727045983</v>
-      </c>
-      <c r="I13">
-        <v>0.9661500889119102</v>
-      </c>
-      <c r="J13">
-        <v>0.9661500889119102</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N13">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O13">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P13">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q13">
-        <v>869.5883913750572</v>
-      </c>
-      <c r="R13">
-        <v>869.5883913750572</v>
-      </c>
-      <c r="S13">
-        <v>0.1941241720838382</v>
-      </c>
-      <c r="T13">
-        <v>0.1941241720838382</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.697008</v>
+      </c>
+      <c r="H21">
+        <v>15.394016</v>
+      </c>
+      <c r="I21">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J21">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>118.764328</v>
+      </c>
+      <c r="N21">
+        <v>356.292984</v>
+      </c>
+      <c r="O21">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P21">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q21">
+        <v>914.129982730624</v>
+      </c>
+      <c r="R21">
+        <v>5484.779896383744</v>
+      </c>
+      <c r="S21">
+        <v>0.1600329980696298</v>
+      </c>
+      <c r="T21">
+        <v>0.1828471685266519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.697008</v>
+      </c>
+      <c r="H22">
+        <v>15.394016</v>
+      </c>
+      <c r="I22">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J22">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N22">
+        <v>253.595871</v>
+      </c>
+      <c r="O22">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P22">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q22">
+        <v>650.643149284656</v>
+      </c>
+      <c r="R22">
+        <v>3903.858895707936</v>
+      </c>
+      <c r="S22">
+        <v>0.1139054355732391</v>
+      </c>
+      <c r="T22">
+        <v>0.1301436992719454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.697008</v>
+      </c>
+      <c r="H23">
+        <v>15.394016</v>
+      </c>
+      <c r="I23">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J23">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N23">
+        <v>238.907105</v>
+      </c>
+      <c r="O23">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P23">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q23">
+        <v>612.9566328139466</v>
+      </c>
+      <c r="R23">
+        <v>3677.73979688368</v>
+      </c>
+      <c r="S23">
+        <v>0.1073078112402176</v>
+      </c>
+      <c r="T23">
+        <v>0.1226055231279814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.697008</v>
+      </c>
+      <c r="H24">
+        <v>15.394016</v>
+      </c>
+      <c r="I24">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J24">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>121.733284</v>
+      </c>
+      <c r="N24">
+        <v>365.199852</v>
+      </c>
+      <c r="O24">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P24">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q24">
+        <v>936.9820608142719</v>
+      </c>
+      <c r="R24">
+        <v>5621.892364885632</v>
+      </c>
+      <c r="S24">
+        <v>0.164033617934349</v>
+      </c>
+      <c r="T24">
+        <v>0.1874181134157621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.697008</v>
+      </c>
+      <c r="H25">
+        <v>15.394016</v>
+      </c>
+      <c r="I25">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J25">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>1076.875031122616</v>
+      </c>
+      <c r="R25">
+        <v>4307.500124490464</v>
+      </c>
+      <c r="S25">
+        <v>0.188524108204054</v>
+      </c>
+      <c r="T25">
+        <v>0.1435999650069051</v>
       </c>
     </row>
   </sheetData>
